--- a/test-output/PurchaseOutput.xlsx
+++ b/test-output/PurchaseOutput.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6D4A1CD6-E587-476B-9E56-D2ADF8F36729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{172492C9-10CD-4F38-B6C8-B0FA424305A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="5565" firstSheet="14" activeTab="17" xr2:uid="{B26DF358-CAFD-4680-A929-B5C790BFFC44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" xr2:uid="{B26DF358-CAFD-4680-A929-B5C790BFFC44}"/>
   </bookViews>
   <sheets>
     <sheet name="MaterialBuyer_List" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
     <sheet name="UnpaidGRN_List" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S16"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>go</t>
   </si>
@@ -49,150 +49,152 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>No Records Found</t>
+  </si>
+  <si>
+    <t>contarctor</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>ThirdPartyBuyer</t>
+  </si>
+  <si>
+    <t>searchsuppcert</t>
+  </si>
+  <si>
+    <t>searchsuppadvance</t>
+  </si>
+  <si>
+    <t>searchpurchaseorders</t>
+  </si>
+  <si>
+    <t>searchTransferorders</t>
+  </si>
+  <si>
+    <t>searchsuppliers</t>
+  </si>
+  <si>
+    <t>WithRfq</t>
+  </si>
+  <si>
+    <t>withoutrfq</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>projectwithrfq</t>
+  </si>
+  <si>
+    <t>projectwithoutrfq</t>
+  </si>
+  <si>
+    <t>projectall</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>companywithproject</t>
+  </si>
+  <si>
+    <t>companyproject</t>
+  </si>
+  <si>
+    <t>nofilter</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>projectwithstatus</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>materialwithfromstore</t>
+  </si>
+  <si>
+    <t>materialtype</t>
+  </si>
+  <si>
+    <t>PurchaseOrder Approvals</t>
+  </si>
+  <si>
+    <t>ROPOMapping Approvals</t>
+  </si>
+  <si>
+    <t>Quotaion Approvals</t>
+  </si>
+  <si>
+    <t>TransferOrder Approvals</t>
+  </si>
+  <si>
+    <t>RateCmparision Approvals</t>
+  </si>
+  <si>
+    <t>MaterialSales Approvals</t>
+  </si>
+  <si>
+    <t>MaterialSalesReceipt Approvals</t>
+  </si>
+  <si>
+    <t>SuppCertificates Approvals</t>
+  </si>
+  <si>
+    <t>SuppAdvances Approvals</t>
+  </si>
+  <si>
+    <t>SuppDN Approvals</t>
+  </si>
+  <si>
+    <t>SuppDNReceipt Approvals</t>
+  </si>
+  <si>
+    <t>SuppDNWaiveOff Approvals</t>
+  </si>
+  <si>
+    <t>SuppMaster Approvals</t>
+  </si>
+  <si>
+    <t>ServCertificates Approvals</t>
+  </si>
+  <si>
+    <t>ServAdvances Approvals</t>
+  </si>
+  <si>
+    <t>ServDN Approvals</t>
+  </si>
+  <si>
+    <t>ServDNReceipt Approvals</t>
+  </si>
+  <si>
+    <t>ServiceProvider Approvals</t>
+  </si>
+  <si>
+    <t>POTermination</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
-    <t>No Records Found</t>
-  </si>
-  <si>
-    <t>materialtype</t>
-  </si>
-  <si>
-    <t>contarctor</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>ThirdPartyBuyer</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>materialwithfromstore</t>
-  </si>
-  <si>
-    <t>PurchaseOrder Approvals</t>
-  </si>
-  <si>
-    <t>ROPOMapping Approvals</t>
-  </si>
-  <si>
-    <t>Quotaion Approvals</t>
-  </si>
-  <si>
-    <t>TransferOrder Approvals</t>
-  </si>
-  <si>
-    <t>RateCmparision Approvals</t>
-  </si>
-  <si>
-    <t>MaterialSales Approvals</t>
-  </si>
-  <si>
-    <t>MaterialSalesReceipt Approvals</t>
-  </si>
-  <si>
-    <t>SuppCertificates Approvals</t>
-  </si>
-  <si>
-    <t>SuppAdvances Approvals</t>
-  </si>
-  <si>
-    <t>SuppDN Approvals</t>
-  </si>
-  <si>
-    <t>SuppDNReceipt Approvals</t>
-  </si>
-  <si>
-    <t>SuppDNWaiveOff Approvals</t>
-  </si>
-  <si>
-    <t>SuppMaster Approvals</t>
-  </si>
-  <si>
-    <t>ServCertificates Approvals</t>
-  </si>
-  <si>
-    <t>ServAdvances Approvals</t>
-  </si>
-  <si>
-    <t>ServDN Approvals</t>
-  </si>
-  <si>
-    <t>ServiceProvider Approvals</t>
-  </si>
-  <si>
-    <t>POTermination</t>
-  </si>
-  <si>
-    <t>ServDNReceipt Approvals</t>
-  </si>
-  <si>
-    <t>searchsuppcert</t>
-  </si>
-  <si>
-    <t>searchsuppadvance</t>
-  </si>
-  <si>
-    <t>searchpurchaseorders</t>
-  </si>
-  <si>
-    <t>searchTransferorders</t>
-  </si>
-  <si>
-    <t>searchsuppliers</t>
-  </si>
-  <si>
-    <t>WithRfq</t>
-  </si>
-  <si>
-    <t>withoutrfq</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>projectwithrfq</t>
-  </si>
-  <si>
-    <t>projectwithoutrfq</t>
-  </si>
-  <si>
-    <t>projectall</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>companywithproject</t>
-  </si>
-  <si>
-    <t>companyproject</t>
-  </si>
-  <si>
-    <t>nofilter</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>projectwithstatus</t>
+    <t>Exception FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,11 +541,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22BAAD9-471B-49BF-BBF9-1F0354DE2A9E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -555,10 +560,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +576,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +591,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -609,18 +614,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -640,10 +645,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -686,18 +691,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -710,22 +715,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -741,22 +746,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -772,22 +777,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -800,25 +805,25 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418F1A25-9265-47B7-8D81-7B8379779352}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>45</v>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -831,20 +836,20 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98248AFB-700A-4AAA-A2A1-382510F297A7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -857,12 +862,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +880,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -888,7 +893,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB95696-BB88-4B81-B53B-1592DA17ED0D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -896,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,9 +909,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>46</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -919,25 +924,28 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A42143-A447-4B96-97D4-3AE9E93FFE73}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>47</v>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -953,7 +961,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +989,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,31 +998,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1027,33 +1035,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1069,16 +1077,245 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF07F98-8516-4437-A4F9-667C82EDB165}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64203D7A-5951-46C5-A00B-088F21AFCBE0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
@@ -1090,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,235 +1359,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF07F98-8516-4437-A4F9-667C82EDB165}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64203D7A-5951-46C5-A00B-088F21AFCBE0}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1363,12 +1372,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,23 +1385,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
